--- a/AAII_Financials/Yearly/ZGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZGN_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1289000</v>
+        <v>1319300</v>
       </c>
       <c r="E8" s="3">
-        <v>1012100</v>
+        <v>1035800</v>
       </c>
       <c r="F8" s="3">
-        <v>1317900</v>
+        <v>1348800</v>
       </c>
       <c r="G8" s="3">
-        <v>1179500</v>
+        <v>1207200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>366300</v>
+        <v>374900</v>
       </c>
       <c r="E9" s="3">
-        <v>313100</v>
+        <v>320400</v>
       </c>
       <c r="F9" s="3">
-        <v>388500</v>
+        <v>397600</v>
       </c>
       <c r="G9" s="3">
-        <v>300000</v>
+        <v>307000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>922700</v>
+        <v>944400</v>
       </c>
       <c r="E10" s="3">
-        <v>699000</v>
+        <v>715400</v>
       </c>
       <c r="F10" s="3">
-        <v>929400</v>
+        <v>951200</v>
       </c>
       <c r="G10" s="3">
-        <v>879500</v>
+        <v>900100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -860,16 +860,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25700</v>
+        <v>26300</v>
       </c>
       <c r="E14" s="3">
-        <v>44000</v>
+        <v>45000</v>
       </c>
       <c r="F14" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="G14" s="3">
-        <v>21200</v>
+        <v>21700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -887,16 +887,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>153800</v>
+        <v>157400</v>
       </c>
       <c r="E15" s="3">
-        <v>165800</v>
+        <v>169700</v>
       </c>
       <c r="F15" s="3">
-        <v>167800</v>
+        <v>171700</v>
       </c>
       <c r="G15" s="3">
-        <v>154000</v>
+        <v>157600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1382800</v>
+        <v>1415300</v>
       </c>
       <c r="E17" s="3">
-        <v>1039100</v>
+        <v>1063500</v>
       </c>
       <c r="F17" s="3">
-        <v>1229500</v>
+        <v>1258300</v>
       </c>
       <c r="G17" s="3">
-        <v>1087800</v>
+        <v>1113300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-93800</v>
+        <v>-96000</v>
       </c>
       <c r="E18" s="3">
-        <v>-27000</v>
+        <v>-27700</v>
       </c>
       <c r="F18" s="3">
-        <v>88400</v>
+        <v>90500</v>
       </c>
       <c r="G18" s="3">
-        <v>91700</v>
+        <v>93800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="E20" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="F20" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G20" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>77900</v>
+        <v>76600</v>
       </c>
       <c r="E21" s="3">
-        <v>168100</v>
+        <v>168600</v>
       </c>
       <c r="F21" s="3">
-        <v>262200</v>
+        <v>265100</v>
       </c>
       <c r="G21" s="3">
-        <v>245800</v>
+        <v>248600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1045,16 +1045,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="E22" s="3">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="F22" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="G22" s="3">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-96700</v>
+        <v>-99000</v>
       </c>
       <c r="E23" s="3">
-        <v>-31500</v>
+        <v>-32200</v>
       </c>
       <c r="F23" s="3">
-        <v>69100</v>
+        <v>70700</v>
       </c>
       <c r="G23" s="3">
-        <v>69700</v>
+        <v>71400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30600</v>
+        <v>31300</v>
       </c>
       <c r="E24" s="3">
-        <v>14900</v>
+        <v>15300</v>
       </c>
       <c r="F24" s="3">
-        <v>43700</v>
+        <v>44700</v>
       </c>
       <c r="G24" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-127300</v>
+        <v>-130300</v>
       </c>
       <c r="E26" s="3">
-        <v>-46400</v>
+        <v>-47500</v>
       </c>
       <c r="F26" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="G26" s="3">
-        <v>40400</v>
+        <v>41400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-135600</v>
+        <v>-138800</v>
       </c>
       <c r="E27" s="3">
-        <v>-50400</v>
+        <v>-51600</v>
       </c>
       <c r="F27" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="G27" s="3">
-        <v>37600</v>
+        <v>38500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="E32" s="3">
-        <v>-9900</v>
+        <v>-10100</v>
       </c>
       <c r="F32" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G32" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-135600</v>
+        <v>-138800</v>
       </c>
       <c r="E33" s="3">
-        <v>-50400</v>
+        <v>-51600</v>
       </c>
       <c r="F33" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="G33" s="3">
-        <v>37600</v>
+        <v>38500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-135600</v>
+        <v>-138800</v>
       </c>
       <c r="E35" s="3">
-        <v>-50400</v>
+        <v>-51600</v>
       </c>
       <c r="F35" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="G35" s="3">
-        <v>37600</v>
+        <v>38500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>458600</v>
+        <v>469400</v>
       </c>
       <c r="E41" s="3">
-        <v>316500</v>
+        <v>323900</v>
       </c>
       <c r="F41" s="3">
-        <v>210100</v>
+        <v>215000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>339500</v>
+        <v>347500</v>
       </c>
       <c r="E42" s="3">
-        <v>349300</v>
+        <v>357400</v>
       </c>
       <c r="F42" s="3">
-        <v>433800</v>
+        <v>444000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>174900</v>
+        <v>179000</v>
       </c>
       <c r="E43" s="3">
-        <v>154000</v>
+        <v>157700</v>
       </c>
       <c r="F43" s="3">
-        <v>187300</v>
+        <v>191700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,13 +1562,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>337600</v>
+        <v>345500</v>
       </c>
       <c r="E44" s="3">
-        <v>320600</v>
+        <v>328200</v>
       </c>
       <c r="F44" s="3">
-        <v>313800</v>
+        <v>321100</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>70400</v>
+        <v>72000</v>
       </c>
       <c r="E45" s="3">
-        <v>95500</v>
+        <v>97800</v>
       </c>
       <c r="F45" s="3">
-        <v>98400</v>
+        <v>100800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1380900</v>
+        <v>1413300</v>
       </c>
       <c r="E46" s="3">
-        <v>1235900</v>
+        <v>1264900</v>
       </c>
       <c r="F46" s="3">
-        <v>1243400</v>
+        <v>1272600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26100</v>
+        <v>26700</v>
       </c>
       <c r="E47" s="3">
-        <v>39600</v>
+        <v>40500</v>
       </c>
       <c r="F47" s="3">
-        <v>87200</v>
+        <v>89200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>480700</v>
+        <v>492000</v>
       </c>
       <c r="E48" s="3">
-        <v>643800</v>
+        <v>659000</v>
       </c>
       <c r="F48" s="3">
-        <v>788100</v>
+        <v>806600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>424100</v>
+        <v>434100</v>
       </c>
       <c r="E49" s="3">
-        <v>386800</v>
+        <v>395900</v>
       </c>
       <c r="F49" s="3">
-        <v>418900</v>
+        <v>428700</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>139500</v>
+        <v>142800</v>
       </c>
       <c r="E52" s="3">
-        <v>102600</v>
+        <v>105000</v>
       </c>
       <c r="F52" s="3">
-        <v>95000</v>
+        <v>97200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2451300</v>
+        <v>2508800</v>
       </c>
       <c r="E54" s="3">
-        <v>2408800</v>
+        <v>2465300</v>
       </c>
       <c r="F54" s="3">
-        <v>2632500</v>
+        <v>2694300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>177300</v>
+        <v>181500</v>
       </c>
       <c r="E57" s="3">
-        <v>149900</v>
+        <v>153400</v>
       </c>
       <c r="F57" s="3">
-        <v>189900</v>
+        <v>194400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>263200</v>
+        <v>269400</v>
       </c>
       <c r="E58" s="3">
-        <v>198400</v>
+        <v>203000</v>
       </c>
       <c r="F58" s="3">
-        <v>208000</v>
+        <v>212900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>259900</v>
+        <v>266000</v>
       </c>
       <c r="E59" s="3">
-        <v>185800</v>
+        <v>190200</v>
       </c>
       <c r="F59" s="3">
-        <v>207900</v>
+        <v>212800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700500</v>
+        <v>716900</v>
       </c>
       <c r="E60" s="3">
-        <v>534100</v>
+        <v>546600</v>
       </c>
       <c r="F60" s="3">
-        <v>605800</v>
+        <v>620000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>801000</v>
+        <v>819800</v>
       </c>
       <c r="E61" s="3">
-        <v>875600</v>
+        <v>896100</v>
       </c>
       <c r="F61" s="3">
-        <v>921800</v>
+        <v>943400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>307200</v>
+        <v>314500</v>
       </c>
       <c r="E62" s="3">
-        <v>355800</v>
+        <v>364100</v>
       </c>
       <c r="F62" s="3">
-        <v>377100</v>
+        <v>385900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1851700</v>
+        <v>1895100</v>
       </c>
       <c r="E66" s="3">
-        <v>1808600</v>
+        <v>1851000</v>
       </c>
       <c r="F66" s="3">
-        <v>1945600</v>
+        <v>1991200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-188100</v>
+        <v>-192500</v>
       </c>
       <c r="E72" s="3">
-        <v>621700</v>
+        <v>636300</v>
       </c>
       <c r="F72" s="3">
-        <v>673800</v>
+        <v>689600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>599600</v>
+        <v>613700</v>
       </c>
       <c r="E76" s="3">
-        <v>600200</v>
+        <v>614300</v>
       </c>
       <c r="F76" s="3">
-        <v>687000</v>
+        <v>703100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-135600</v>
+        <v>-138800</v>
       </c>
       <c r="E81" s="3">
-        <v>-50400</v>
+        <v>-51600</v>
       </c>
       <c r="F81" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="G81" s="3">
-        <v>37600</v>
+        <v>38500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>162900</v>
+        <v>166800</v>
       </c>
       <c r="E83" s="3">
-        <v>185400</v>
+        <v>189800</v>
       </c>
       <c r="F83" s="3">
-        <v>176600</v>
+        <v>180800</v>
       </c>
       <c r="G83" s="3">
-        <v>160200</v>
+        <v>163900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>280400</v>
+        <v>287000</v>
       </c>
       <c r="E89" s="3">
-        <v>70700</v>
+        <v>72400</v>
       </c>
       <c r="F89" s="3">
-        <v>173700</v>
+        <v>177700</v>
       </c>
       <c r="G89" s="3">
-        <v>192300</v>
+        <v>196800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-79500</v>
+        <v>-81400</v>
       </c>
       <c r="E91" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="F91" s="3">
-        <v>-46000</v>
+        <v>-47100</v>
       </c>
       <c r="G91" s="3">
-        <v>-49100</v>
+        <v>-50300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81800</v>
+        <v>-83700</v>
       </c>
       <c r="E94" s="3">
-        <v>92300</v>
+        <v>94500</v>
       </c>
       <c r="F94" s="3">
-        <v>83700</v>
+        <v>85700</v>
       </c>
       <c r="G94" s="3">
-        <v>-333700</v>
+        <v>-341500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63900</v>
+        <v>-65400</v>
       </c>
       <c r="E100" s="3">
-        <v>-48900</v>
+        <v>-50100</v>
       </c>
       <c r="F100" s="3">
-        <v>-266800</v>
+        <v>-273000</v>
       </c>
       <c r="G100" s="3">
-        <v>131500</v>
+        <v>134600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2968,10 +2968,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="E101" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="F101" s="3">
         <v>1700</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>142100</v>
+        <v>145500</v>
       </c>
       <c r="E102" s="3">
-        <v>106400</v>
+        <v>108900</v>
       </c>
       <c r="F102" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="G102" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZGN_YR_FIN.xlsx
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1319300</v>
+        <v>1367400</v>
       </c>
       <c r="E8" s="3">
-        <v>1035800</v>
+        <v>1073600</v>
       </c>
       <c r="F8" s="3">
-        <v>1348800</v>
+        <v>1398000</v>
       </c>
       <c r="G8" s="3">
-        <v>1207200</v>
+        <v>1251200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>374900</v>
+        <v>388600</v>
       </c>
       <c r="E9" s="3">
-        <v>320400</v>
+        <v>332100</v>
       </c>
       <c r="F9" s="3">
-        <v>397600</v>
+        <v>412100</v>
       </c>
       <c r="G9" s="3">
-        <v>307000</v>
+        <v>318200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>944400</v>
+        <v>978800</v>
       </c>
       <c r="E10" s="3">
-        <v>715400</v>
+        <v>741500</v>
       </c>
       <c r="F10" s="3">
-        <v>951200</v>
+        <v>985900</v>
       </c>
       <c r="G10" s="3">
-        <v>900100</v>
+        <v>932900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -860,16 +860,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="E14" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="F14" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="G14" s="3">
-        <v>21700</v>
+        <v>22500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -887,16 +887,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>157400</v>
+        <v>163100</v>
       </c>
       <c r="E15" s="3">
-        <v>169700</v>
+        <v>175800</v>
       </c>
       <c r="F15" s="3">
-        <v>171700</v>
+        <v>178000</v>
       </c>
       <c r="G15" s="3">
-        <v>157600</v>
+        <v>163400</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1415300</v>
+        <v>1466800</v>
       </c>
       <c r="E17" s="3">
-        <v>1063500</v>
+        <v>1102200</v>
       </c>
       <c r="F17" s="3">
-        <v>1258300</v>
+        <v>1304200</v>
       </c>
       <c r="G17" s="3">
-        <v>1113300</v>
+        <v>1153900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-96000</v>
+        <v>-99500</v>
       </c>
       <c r="E18" s="3">
-        <v>-27700</v>
+        <v>-28700</v>
       </c>
       <c r="F18" s="3">
-        <v>90500</v>
+        <v>93800</v>
       </c>
       <c r="G18" s="3">
-        <v>93800</v>
+        <v>97200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="E20" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="G20" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>76600</v>
+        <v>82200</v>
       </c>
       <c r="E21" s="3">
-        <v>168600</v>
+        <v>177900</v>
       </c>
       <c r="F21" s="3">
-        <v>265100</v>
+        <v>277700</v>
       </c>
       <c r="G21" s="3">
-        <v>248600</v>
+        <v>260300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1045,16 +1045,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="E22" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="F22" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="G22" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-99000</v>
+        <v>-102600</v>
       </c>
       <c r="E23" s="3">
-        <v>-32200</v>
+        <v>-33400</v>
       </c>
       <c r="F23" s="3">
-        <v>70700</v>
+        <v>73200</v>
       </c>
       <c r="G23" s="3">
-        <v>71400</v>
+        <v>74000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31300</v>
+        <v>32500</v>
       </c>
       <c r="E24" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="F24" s="3">
-        <v>44700</v>
+        <v>46300</v>
       </c>
       <c r="G24" s="3">
-        <v>30000</v>
+        <v>31100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-130300</v>
+        <v>-135100</v>
       </c>
       <c r="E26" s="3">
-        <v>-47500</v>
+        <v>-49200</v>
       </c>
       <c r="F26" s="3">
-        <v>26000</v>
+        <v>26900</v>
       </c>
       <c r="G26" s="3">
-        <v>41400</v>
+        <v>42900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-138800</v>
+        <v>-143900</v>
       </c>
       <c r="E27" s="3">
-        <v>-51600</v>
+        <v>-53500</v>
       </c>
       <c r="F27" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="G27" s="3">
-        <v>38500</v>
+        <v>39900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9100</v>
+        <v>-9400</v>
       </c>
       <c r="E32" s="3">
-        <v>-10100</v>
+        <v>-10500</v>
       </c>
       <c r="F32" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G32" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-138800</v>
+        <v>-143900</v>
       </c>
       <c r="E33" s="3">
-        <v>-51600</v>
+        <v>-53500</v>
       </c>
       <c r="F33" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="G33" s="3">
-        <v>38500</v>
+        <v>39900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-138800</v>
+        <v>-143900</v>
       </c>
       <c r="E35" s="3">
-        <v>-51600</v>
+        <v>-53500</v>
       </c>
       <c r="F35" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="G35" s="3">
-        <v>38500</v>
+        <v>39900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>469400</v>
+        <v>486500</v>
       </c>
       <c r="E41" s="3">
-        <v>323900</v>
+        <v>335700</v>
       </c>
       <c r="F41" s="3">
-        <v>215000</v>
+        <v>222800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>347500</v>
+        <v>360100</v>
       </c>
       <c r="E42" s="3">
-        <v>357400</v>
+        <v>370500</v>
       </c>
       <c r="F42" s="3">
-        <v>444000</v>
+        <v>460100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>179000</v>
+        <v>185500</v>
       </c>
       <c r="E43" s="3">
-        <v>157700</v>
+        <v>163400</v>
       </c>
       <c r="F43" s="3">
-        <v>191700</v>
+        <v>198700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,13 +1562,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>345500</v>
+        <v>358100</v>
       </c>
       <c r="E44" s="3">
-        <v>328200</v>
+        <v>340100</v>
       </c>
       <c r="F44" s="3">
-        <v>321100</v>
+        <v>332800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72000</v>
+        <v>74700</v>
       </c>
       <c r="E45" s="3">
-        <v>97800</v>
+        <v>101300</v>
       </c>
       <c r="F45" s="3">
-        <v>100800</v>
+        <v>104400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1413300</v>
+        <v>1464800</v>
       </c>
       <c r="E46" s="3">
-        <v>1264900</v>
+        <v>1311000</v>
       </c>
       <c r="F46" s="3">
-        <v>1272600</v>
+        <v>1318900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="E47" s="3">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="F47" s="3">
-        <v>89200</v>
+        <v>92500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>492000</v>
+        <v>509900</v>
       </c>
       <c r="E48" s="3">
-        <v>659000</v>
+        <v>683000</v>
       </c>
       <c r="F48" s="3">
-        <v>806600</v>
+        <v>836000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>434100</v>
+        <v>449900</v>
       </c>
       <c r="E49" s="3">
-        <v>395900</v>
+        <v>410300</v>
       </c>
       <c r="F49" s="3">
-        <v>428700</v>
+        <v>444300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>142800</v>
+        <v>148000</v>
       </c>
       <c r="E52" s="3">
-        <v>105000</v>
+        <v>108800</v>
       </c>
       <c r="F52" s="3">
-        <v>97200</v>
+        <v>100800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2508800</v>
+        <v>2600300</v>
       </c>
       <c r="E54" s="3">
-        <v>2465300</v>
+        <v>2555100</v>
       </c>
       <c r="F54" s="3">
-        <v>2694300</v>
+        <v>2792500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>181500</v>
+        <v>188100</v>
       </c>
       <c r="E57" s="3">
-        <v>153400</v>
+        <v>159000</v>
       </c>
       <c r="F57" s="3">
-        <v>194400</v>
+        <v>201400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>269400</v>
+        <v>279200</v>
       </c>
       <c r="E58" s="3">
-        <v>203000</v>
+        <v>210400</v>
       </c>
       <c r="F58" s="3">
-        <v>212900</v>
+        <v>220600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>266000</v>
+        <v>275700</v>
       </c>
       <c r="E59" s="3">
-        <v>190200</v>
+        <v>197100</v>
       </c>
       <c r="F59" s="3">
-        <v>212800</v>
+        <v>220500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>716900</v>
+        <v>743100</v>
       </c>
       <c r="E60" s="3">
-        <v>546600</v>
+        <v>566500</v>
       </c>
       <c r="F60" s="3">
-        <v>620000</v>
+        <v>642600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>819800</v>
+        <v>849600</v>
       </c>
       <c r="E61" s="3">
-        <v>896100</v>
+        <v>928800</v>
       </c>
       <c r="F61" s="3">
-        <v>943400</v>
+        <v>977800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>314500</v>
+        <v>325900</v>
       </c>
       <c r="E62" s="3">
-        <v>364100</v>
+        <v>377400</v>
       </c>
       <c r="F62" s="3">
-        <v>385900</v>
+        <v>400000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1895100</v>
+        <v>1964200</v>
       </c>
       <c r="E66" s="3">
-        <v>1851000</v>
+        <v>1918500</v>
       </c>
       <c r="F66" s="3">
-        <v>1991200</v>
+        <v>2063800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-192500</v>
+        <v>-199500</v>
       </c>
       <c r="E72" s="3">
-        <v>636300</v>
+        <v>659500</v>
       </c>
       <c r="F72" s="3">
-        <v>689600</v>
+        <v>714700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>613700</v>
+        <v>636100</v>
       </c>
       <c r="E76" s="3">
-        <v>614300</v>
+        <v>636700</v>
       </c>
       <c r="F76" s="3">
-        <v>703100</v>
+        <v>728700</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-138800</v>
+        <v>-143900</v>
       </c>
       <c r="E81" s="3">
-        <v>-51600</v>
+        <v>-53500</v>
       </c>
       <c r="F81" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="G81" s="3">
-        <v>38500</v>
+        <v>39900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>166800</v>
+        <v>172800</v>
       </c>
       <c r="E83" s="3">
-        <v>189800</v>
+        <v>196700</v>
       </c>
       <c r="F83" s="3">
-        <v>180800</v>
+        <v>187300</v>
       </c>
       <c r="G83" s="3">
-        <v>163900</v>
+        <v>169900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>287000</v>
+        <v>297500</v>
       </c>
       <c r="E89" s="3">
-        <v>72400</v>
+        <v>75000</v>
       </c>
       <c r="F89" s="3">
-        <v>177700</v>
+        <v>184200</v>
       </c>
       <c r="G89" s="3">
-        <v>196800</v>
+        <v>203900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-81400</v>
+        <v>-84300</v>
       </c>
       <c r="E91" s="3">
-        <v>-28200</v>
+        <v>-29200</v>
       </c>
       <c r="F91" s="3">
-        <v>-47100</v>
+        <v>-48800</v>
       </c>
       <c r="G91" s="3">
-        <v>-50300</v>
+        <v>-52100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83700</v>
+        <v>-86800</v>
       </c>
       <c r="E94" s="3">
-        <v>94500</v>
+        <v>97900</v>
       </c>
       <c r="F94" s="3">
-        <v>85700</v>
+        <v>88800</v>
       </c>
       <c r="G94" s="3">
-        <v>-341500</v>
+        <v>-353900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-65400</v>
+        <v>-67800</v>
       </c>
       <c r="E100" s="3">
-        <v>-50100</v>
+        <v>-51900</v>
       </c>
       <c r="F100" s="3">
-        <v>-273000</v>
+        <v>-283000</v>
       </c>
       <c r="G100" s="3">
-        <v>134600</v>
+        <v>139500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="E101" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="F101" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>145500</v>
+        <v>150800</v>
       </c>
       <c r="E102" s="3">
-        <v>108900</v>
+        <v>112900</v>
       </c>
       <c r="F102" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="G102" s="3">
-        <v>-10500</v>
+        <v>-10900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZGN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>ZGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,69 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1367400</v>
+        <v>1607600</v>
       </c>
       <c r="E8" s="3">
-        <v>1073600</v>
+        <v>1391800</v>
       </c>
       <c r="F8" s="3">
-        <v>1398000</v>
+        <v>1092800</v>
       </c>
       <c r="G8" s="3">
-        <v>1251200</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>1422900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1273500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -732,26 +735,29 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>388600</v>
+        <v>432100</v>
       </c>
       <c r="E9" s="3">
-        <v>332100</v>
+        <v>395500</v>
       </c>
       <c r="F9" s="3">
-        <v>412100</v>
+        <v>338000</v>
       </c>
       <c r="G9" s="3">
-        <v>318200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>419500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>323900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -759,26 +765,29 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>978800</v>
+        <v>1175500</v>
       </c>
       <c r="E10" s="3">
-        <v>741500</v>
+        <v>996300</v>
       </c>
       <c r="F10" s="3">
-        <v>985900</v>
+        <v>754700</v>
       </c>
       <c r="G10" s="3">
-        <v>932900</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>1003500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>949600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,26 +869,29 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27300</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3">
-        <v>46700</v>
+        <v>27800</v>
       </c>
       <c r="F14" s="3">
-        <v>19700</v>
+        <v>47500</v>
       </c>
       <c r="G14" s="3">
-        <v>22500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>20100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>22900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -880,26 +899,29 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>163100</v>
+        <v>185100</v>
       </c>
       <c r="E15" s="3">
-        <v>175800</v>
+        <v>166100</v>
       </c>
       <c r="F15" s="3">
-        <v>178000</v>
+        <v>179000</v>
       </c>
       <c r="G15" s="3">
-        <v>163400</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>181100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>166300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,25 +943,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1466800</v>
+        <v>1448500</v>
       </c>
       <c r="E17" s="3">
-        <v>1102200</v>
+        <v>1493000</v>
       </c>
       <c r="F17" s="3">
-        <v>1304200</v>
+        <v>1121900</v>
       </c>
       <c r="G17" s="3">
-        <v>1153900</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>1327500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1174500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -944,26 +970,29 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-99500</v>
+        <v>159100</v>
       </c>
       <c r="E18" s="3">
-        <v>-28700</v>
+        <v>-101300</v>
       </c>
       <c r="F18" s="3">
-        <v>93800</v>
+        <v>-29200</v>
       </c>
       <c r="G18" s="3">
-        <v>97200</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>95500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>99000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,25 +1017,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9400</v>
+        <v>-34500</v>
       </c>
       <c r="E20" s="3">
-        <v>10500</v>
+        <v>9600</v>
       </c>
       <c r="F20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>-6400</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1011,26 +1044,29 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>82200</v>
+        <v>312700</v>
       </c>
       <c r="E21" s="3">
-        <v>177900</v>
+        <v>85400</v>
       </c>
       <c r="F21" s="3">
-        <v>277700</v>
+        <v>183000</v>
       </c>
       <c r="G21" s="3">
-        <v>260300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>284500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>266700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1038,26 +1074,29 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12500</v>
+        <v>15800</v>
       </c>
       <c r="E22" s="3">
-        <v>15200</v>
+        <v>12700</v>
       </c>
       <c r="F22" s="3">
-        <v>17700</v>
+        <v>15500</v>
       </c>
       <c r="G22" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>18100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>17300</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1065,26 +1104,29 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-102600</v>
+        <v>108900</v>
       </c>
       <c r="E23" s="3">
-        <v>-33400</v>
+        <v>-104400</v>
       </c>
       <c r="F23" s="3">
-        <v>73200</v>
+        <v>-34000</v>
       </c>
       <c r="G23" s="3">
-        <v>74000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>74600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>75300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1092,26 +1134,29 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32500</v>
+        <v>38600</v>
       </c>
       <c r="E24" s="3">
-        <v>15900</v>
+        <v>33100</v>
       </c>
       <c r="F24" s="3">
-        <v>46300</v>
+        <v>16100</v>
       </c>
       <c r="G24" s="3">
-        <v>31100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>47200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>31700</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,26 +1194,29 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-135100</v>
+        <v>70300</v>
       </c>
       <c r="E26" s="3">
-        <v>-49200</v>
+        <v>-137500</v>
       </c>
       <c r="F26" s="3">
-        <v>26900</v>
+        <v>-50100</v>
       </c>
       <c r="G26" s="3">
-        <v>42900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>27400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>43600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1173,26 +1224,29 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-143900</v>
+        <v>55400</v>
       </c>
       <c r="E27" s="3">
-        <v>-53500</v>
+        <v>-146500</v>
       </c>
       <c r="F27" s="3">
-        <v>23000</v>
+        <v>-54500</v>
       </c>
       <c r="G27" s="3">
-        <v>39900</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>23400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>40600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,26 +1374,29 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9400</v>
+        <v>34500</v>
       </c>
       <c r="E32" s="3">
-        <v>-10500</v>
+        <v>-9600</v>
       </c>
       <c r="F32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G32" s="3">
         <v>2800</v>
       </c>
-      <c r="G32" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>6400</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1335,26 +1404,29 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-143900</v>
+        <v>55400</v>
       </c>
       <c r="E33" s="3">
-        <v>-53500</v>
+        <v>-146500</v>
       </c>
       <c r="F33" s="3">
-        <v>23000</v>
+        <v>-54500</v>
       </c>
       <c r="G33" s="3">
-        <v>39900</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>23400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>40600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,26 +1464,29 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-143900</v>
+        <v>55400</v>
       </c>
       <c r="E35" s="3">
-        <v>-53500</v>
+        <v>-146500</v>
       </c>
       <c r="F35" s="3">
-        <v>23000</v>
+        <v>-54500</v>
       </c>
       <c r="G35" s="3">
-        <v>39900</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>23400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>40600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1416,41 +1494,47 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>486500</v>
+        <v>273900</v>
       </c>
       <c r="E41" s="3">
-        <v>335700</v>
+        <v>495100</v>
       </c>
       <c r="F41" s="3">
-        <v>222800</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>341700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>226800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,23 +1587,26 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>360100</v>
+        <v>345600</v>
       </c>
       <c r="E42" s="3">
-        <v>370500</v>
+        <v>366600</v>
       </c>
       <c r="F42" s="3">
-        <v>460100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>377100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>468300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>185500</v>
+        <v>207400</v>
       </c>
       <c r="E43" s="3">
-        <v>163400</v>
+        <v>188800</v>
       </c>
       <c r="F43" s="3">
-        <v>198700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>166300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>202200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,23 +1647,26 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>358100</v>
+        <v>442400</v>
       </c>
       <c r="E44" s="3">
-        <v>340100</v>
+        <v>364500</v>
       </c>
       <c r="F44" s="3">
-        <v>332800</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>346200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>338800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1582,23 +1677,26 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74700</v>
+        <v>115300</v>
       </c>
       <c r="E45" s="3">
-        <v>101300</v>
+        <v>76000</v>
       </c>
       <c r="F45" s="3">
-        <v>104400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>103200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>106300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,23 +1707,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1464800</v>
+        <v>1384500</v>
       </c>
       <c r="E46" s="3">
-        <v>1311000</v>
+        <v>1491000</v>
       </c>
       <c r="F46" s="3">
-        <v>1318900</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>1334400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1342500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,23 +1737,26 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27700</v>
+        <v>30300</v>
       </c>
       <c r="E47" s="3">
-        <v>42000</v>
+        <v>28200</v>
       </c>
       <c r="F47" s="3">
-        <v>92500</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>42700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>94100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1663,23 +1767,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>509900</v>
+        <v>540200</v>
       </c>
       <c r="E48" s="3">
-        <v>683000</v>
+        <v>519000</v>
       </c>
       <c r="F48" s="3">
-        <v>836000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>695200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>850900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,23 +1797,26 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>449900</v>
+        <v>491000</v>
       </c>
       <c r="E49" s="3">
-        <v>410300</v>
+        <v>457900</v>
       </c>
       <c r="F49" s="3">
-        <v>444300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>417700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>452300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +1887,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>148000</v>
+        <v>167300</v>
       </c>
       <c r="E52" s="3">
-        <v>108800</v>
+        <v>150600</v>
       </c>
       <c r="F52" s="3">
-        <v>100800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>110800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>102600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2600300</v>
+        <v>2613300</v>
       </c>
       <c r="E54" s="3">
-        <v>2555100</v>
+        <v>2646700</v>
       </c>
       <c r="F54" s="3">
-        <v>2792500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>2600800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2842400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2008,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>188100</v>
+        <v>237800</v>
       </c>
       <c r="E57" s="3">
-        <v>159000</v>
+        <v>191500</v>
       </c>
       <c r="F57" s="3">
-        <v>201400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>161800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>205000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,23 +2035,26 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>279200</v>
+        <v>428200</v>
       </c>
       <c r="E58" s="3">
-        <v>210400</v>
+        <v>284200</v>
       </c>
       <c r="F58" s="3">
-        <v>220600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>214200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>224600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1932,23 +2065,26 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>275700</v>
+        <v>267700</v>
       </c>
       <c r="E59" s="3">
-        <v>197100</v>
+        <v>280600</v>
       </c>
       <c r="F59" s="3">
-        <v>220500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>200700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>224500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,23 +2095,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>743100</v>
+        <v>933700</v>
       </c>
       <c r="E60" s="3">
-        <v>566500</v>
+        <v>756300</v>
       </c>
       <c r="F60" s="3">
-        <v>642600</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>576600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>654100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,23 +2125,26 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>849600</v>
+        <v>556700</v>
       </c>
       <c r="E61" s="3">
-        <v>928800</v>
+        <v>864800</v>
       </c>
       <c r="F61" s="3">
-        <v>977800</v>
+        <v>945400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>995300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2013,23 +2155,26 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>325900</v>
+        <v>334400</v>
       </c>
       <c r="E62" s="3">
-        <v>377400</v>
+        <v>331700</v>
       </c>
       <c r="F62" s="3">
-        <v>400000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>384100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>407200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1964200</v>
+        <v>1882200</v>
       </c>
       <c r="E66" s="3">
-        <v>1918500</v>
+        <v>1999300</v>
       </c>
       <c r="F66" s="3">
-        <v>2063800</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>1952700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2100600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2439,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-199500</v>
+        <v>-167900</v>
       </c>
       <c r="E72" s="3">
-        <v>659500</v>
+        <v>-203100</v>
       </c>
       <c r="F72" s="3">
-        <v>714700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>671300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>727500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>636100</v>
+        <v>731200</v>
       </c>
       <c r="E76" s="3">
-        <v>636700</v>
+        <v>647400</v>
       </c>
       <c r="F76" s="3">
-        <v>728700</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>648000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>741700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,58 +2619,64 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-143900</v>
+        <v>55400</v>
       </c>
       <c r="E81" s="3">
-        <v>-53500</v>
+        <v>-146500</v>
       </c>
       <c r="F81" s="3">
-        <v>23000</v>
+        <v>-54500</v>
       </c>
       <c r="G81" s="3">
-        <v>39900</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>23400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>40600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,25 +2701,26 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>172800</v>
+        <v>186900</v>
       </c>
       <c r="E83" s="3">
-        <v>196700</v>
+        <v>175900</v>
       </c>
       <c r="F83" s="3">
-        <v>187300</v>
+        <v>200200</v>
       </c>
       <c r="G83" s="3">
-        <v>169900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>190700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>172900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,26 +2878,29 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>297500</v>
+        <v>157700</v>
       </c>
       <c r="E89" s="3">
-        <v>75000</v>
+        <v>302800</v>
       </c>
       <c r="F89" s="3">
-        <v>184200</v>
+        <v>76400</v>
       </c>
       <c r="G89" s="3">
-        <v>203900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>187500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>207600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,25 +2925,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-84300</v>
+        <v>-52900</v>
       </c>
       <c r="E91" s="3">
-        <v>-29200</v>
+        <v>-85800</v>
       </c>
       <c r="F91" s="3">
-        <v>-48800</v>
+        <v>-29800</v>
       </c>
       <c r="G91" s="3">
-        <v>-52100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-49700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-53000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,26 +3012,29 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86800</v>
+        <v>-61700</v>
       </c>
       <c r="E94" s="3">
-        <v>97900</v>
+        <v>-88300</v>
       </c>
       <c r="F94" s="3">
-        <v>88800</v>
+        <v>99700</v>
       </c>
       <c r="G94" s="3">
-        <v>-353900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>90400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-360300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,17 +3059,18 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,26 +3176,29 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-67800</v>
+        <v>-319800</v>
       </c>
       <c r="E100" s="3">
-        <v>-51900</v>
+        <v>-69000</v>
       </c>
       <c r="F100" s="3">
-        <v>-283000</v>
+        <v>-52800</v>
       </c>
       <c r="G100" s="3">
-        <v>139500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-288100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>142000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -2961,53 +3206,59 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7900</v>
+        <v>2700</v>
       </c>
       <c r="E101" s="3">
-        <v>-8200</v>
+        <v>8000</v>
       </c>
       <c r="F101" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>150800</v>
+        <v>-221300</v>
       </c>
       <c r="E102" s="3">
-        <v>112900</v>
+        <v>153500</v>
       </c>
       <c r="F102" s="3">
-        <v>-8200</v>
+        <v>114900</v>
       </c>
       <c r="G102" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-11100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ZGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZGN_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1607600</v>
+        <v>1618400</v>
       </c>
       <c r="E8" s="3">
-        <v>1391800</v>
+        <v>1401100</v>
       </c>
       <c r="F8" s="3">
-        <v>1092800</v>
+        <v>1100100</v>
       </c>
       <c r="G8" s="3">
-        <v>1422900</v>
+        <v>1432500</v>
       </c>
       <c r="H8" s="3">
-        <v>1273500</v>
+        <v>1282000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>432100</v>
+        <v>435000</v>
       </c>
       <c r="E9" s="3">
-        <v>395500</v>
+        <v>398200</v>
       </c>
       <c r="F9" s="3">
-        <v>338000</v>
+        <v>340300</v>
       </c>
       <c r="G9" s="3">
-        <v>419500</v>
+        <v>422300</v>
       </c>
       <c r="H9" s="3">
-        <v>323900</v>
+        <v>326100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1175500</v>
+        <v>1183400</v>
       </c>
       <c r="E10" s="3">
-        <v>996300</v>
+        <v>1002900</v>
       </c>
       <c r="F10" s="3">
-        <v>754700</v>
+        <v>759800</v>
       </c>
       <c r="G10" s="3">
-        <v>1003500</v>
+        <v>1010200</v>
       </c>
       <c r="H10" s="3">
-        <v>949600</v>
+        <v>956000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -879,19 +879,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E14" s="3">
-        <v>27800</v>
+        <v>28000</v>
       </c>
       <c r="F14" s="3">
-        <v>47500</v>
+        <v>47800</v>
       </c>
       <c r="G14" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="H14" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -909,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>185100</v>
+        <v>186300</v>
       </c>
       <c r="E15" s="3">
-        <v>166100</v>
+        <v>167200</v>
       </c>
       <c r="F15" s="3">
-        <v>179000</v>
+        <v>180200</v>
       </c>
       <c r="G15" s="3">
-        <v>181100</v>
+        <v>182400</v>
       </c>
       <c r="H15" s="3">
-        <v>166300</v>
+        <v>167400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1448500</v>
+        <v>1458200</v>
       </c>
       <c r="E17" s="3">
-        <v>1493000</v>
+        <v>1503000</v>
       </c>
       <c r="F17" s="3">
-        <v>1121900</v>
+        <v>1129400</v>
       </c>
       <c r="G17" s="3">
-        <v>1327500</v>
+        <v>1336400</v>
       </c>
       <c r="H17" s="3">
-        <v>1174500</v>
+        <v>1182400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>159100</v>
+        <v>160200</v>
       </c>
       <c r="E18" s="3">
-        <v>-101300</v>
+        <v>-101900</v>
       </c>
       <c r="F18" s="3">
-        <v>-29200</v>
+        <v>-29400</v>
       </c>
       <c r="G18" s="3">
-        <v>95500</v>
+        <v>96100</v>
       </c>
       <c r="H18" s="3">
-        <v>99000</v>
+        <v>99600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-34500</v>
+        <v>-34700</v>
       </c>
       <c r="E20" s="3">
         <v>9600</v>
@@ -1033,7 +1033,7 @@
         <v>10700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H20" s="3">
         <v>-6400</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>312700</v>
+        <v>313600</v>
       </c>
       <c r="E21" s="3">
-        <v>85400</v>
+        <v>84800</v>
       </c>
       <c r="F21" s="3">
-        <v>183000</v>
+        <v>182900</v>
       </c>
       <c r="G21" s="3">
-        <v>284500</v>
+        <v>285200</v>
       </c>
       <c r="H21" s="3">
-        <v>266700</v>
+        <v>267300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1084,19 +1084,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="E22" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="F22" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="G22" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="H22" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>108900</v>
+        <v>109600</v>
       </c>
       <c r="E23" s="3">
-        <v>-104400</v>
+        <v>-105100</v>
       </c>
       <c r="F23" s="3">
-        <v>-34000</v>
+        <v>-34200</v>
       </c>
       <c r="G23" s="3">
-        <v>74600</v>
+        <v>75100</v>
       </c>
       <c r="H23" s="3">
-        <v>75300</v>
+        <v>75800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38600</v>
+        <v>38800</v>
       </c>
       <c r="E24" s="3">
-        <v>33100</v>
+        <v>33300</v>
       </c>
       <c r="F24" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="G24" s="3">
-        <v>47200</v>
+        <v>47500</v>
       </c>
       <c r="H24" s="3">
-        <v>31700</v>
+        <v>31900</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>70300</v>
+        <v>70800</v>
       </c>
       <c r="E26" s="3">
-        <v>-137500</v>
+        <v>-138400</v>
       </c>
       <c r="F26" s="3">
-        <v>-50100</v>
+        <v>-50500</v>
       </c>
       <c r="G26" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="H26" s="3">
-        <v>43600</v>
+        <v>43900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>55400</v>
+        <v>55800</v>
       </c>
       <c r="E27" s="3">
-        <v>-146500</v>
+        <v>-147400</v>
       </c>
       <c r="F27" s="3">
-        <v>-54500</v>
+        <v>-54800</v>
       </c>
       <c r="G27" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="H27" s="3">
-        <v>40600</v>
+        <v>40900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="E32" s="3">
         <v>-9600</v>
@@ -1393,7 +1393,7 @@
         <v>-10700</v>
       </c>
       <c r="G32" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H32" s="3">
         <v>6400</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>55400</v>
+        <v>55800</v>
       </c>
       <c r="E33" s="3">
-        <v>-146500</v>
+        <v>-147400</v>
       </c>
       <c r="F33" s="3">
-        <v>-54500</v>
+        <v>-54800</v>
       </c>
       <c r="G33" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="H33" s="3">
-        <v>40600</v>
+        <v>40900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>55400</v>
+        <v>55800</v>
       </c>
       <c r="E35" s="3">
-        <v>-146500</v>
+        <v>-147400</v>
       </c>
       <c r="F35" s="3">
-        <v>-54500</v>
+        <v>-54800</v>
       </c>
       <c r="G35" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="H35" s="3">
-        <v>40600</v>
+        <v>40900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>273900</v>
+        <v>275700</v>
       </c>
       <c r="E41" s="3">
-        <v>495100</v>
+        <v>498500</v>
       </c>
       <c r="F41" s="3">
-        <v>341700</v>
+        <v>344000</v>
       </c>
       <c r="G41" s="3">
-        <v>226800</v>
+        <v>228300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>345600</v>
+        <v>347900</v>
       </c>
       <c r="E42" s="3">
-        <v>366600</v>
+        <v>369000</v>
       </c>
       <c r="F42" s="3">
-        <v>377100</v>
+        <v>379600</v>
       </c>
       <c r="G42" s="3">
-        <v>468300</v>
+        <v>471500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>207400</v>
+        <v>208800</v>
       </c>
       <c r="E43" s="3">
-        <v>188800</v>
+        <v>190100</v>
       </c>
       <c r="F43" s="3">
-        <v>166300</v>
+        <v>167400</v>
       </c>
       <c r="G43" s="3">
-        <v>202200</v>
+        <v>203600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1657,16 +1657,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>442400</v>
+        <v>445400</v>
       </c>
       <c r="E44" s="3">
-        <v>364500</v>
+        <v>366900</v>
       </c>
       <c r="F44" s="3">
-        <v>346200</v>
+        <v>348500</v>
       </c>
       <c r="G44" s="3">
-        <v>338800</v>
+        <v>341000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>115300</v>
+        <v>116000</v>
       </c>
       <c r="E45" s="3">
-        <v>76000</v>
+        <v>76500</v>
       </c>
       <c r="F45" s="3">
-        <v>103200</v>
+        <v>103800</v>
       </c>
       <c r="G45" s="3">
-        <v>106300</v>
+        <v>107000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1384500</v>
+        <v>1393800</v>
       </c>
       <c r="E46" s="3">
-        <v>1491000</v>
+        <v>1501000</v>
       </c>
       <c r="F46" s="3">
-        <v>1334400</v>
+        <v>1343400</v>
       </c>
       <c r="G46" s="3">
-        <v>1342500</v>
+        <v>1351500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="E47" s="3">
-        <v>28200</v>
+        <v>28400</v>
       </c>
       <c r="F47" s="3">
-        <v>42700</v>
+        <v>43000</v>
       </c>
       <c r="G47" s="3">
-        <v>94100</v>
+        <v>94800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>540200</v>
+        <v>543800</v>
       </c>
       <c r="E48" s="3">
-        <v>519000</v>
+        <v>522500</v>
       </c>
       <c r="F48" s="3">
-        <v>695200</v>
+        <v>699800</v>
       </c>
       <c r="G48" s="3">
-        <v>850900</v>
+        <v>856600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>491000</v>
+        <v>494200</v>
       </c>
       <c r="E49" s="3">
-        <v>457900</v>
+        <v>461000</v>
       </c>
       <c r="F49" s="3">
-        <v>417700</v>
+        <v>420500</v>
       </c>
       <c r="G49" s="3">
-        <v>452300</v>
+        <v>455300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>167300</v>
+        <v>168500</v>
       </c>
       <c r="E52" s="3">
-        <v>150600</v>
+        <v>151600</v>
       </c>
       <c r="F52" s="3">
-        <v>110800</v>
+        <v>111500</v>
       </c>
       <c r="G52" s="3">
-        <v>102600</v>
+        <v>103200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2613300</v>
+        <v>2630800</v>
       </c>
       <c r="E54" s="3">
-        <v>2646700</v>
+        <v>2664400</v>
       </c>
       <c r="F54" s="3">
-        <v>2600800</v>
+        <v>2618200</v>
       </c>
       <c r="G54" s="3">
-        <v>2842400</v>
+        <v>2861400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>237800</v>
+        <v>239400</v>
       </c>
       <c r="E57" s="3">
-        <v>191500</v>
+        <v>192800</v>
       </c>
       <c r="F57" s="3">
-        <v>161800</v>
+        <v>162900</v>
       </c>
       <c r="G57" s="3">
-        <v>205000</v>
+        <v>206400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>428200</v>
+        <v>431100</v>
       </c>
       <c r="E58" s="3">
-        <v>284200</v>
+        <v>286100</v>
       </c>
       <c r="F58" s="3">
-        <v>214200</v>
+        <v>215600</v>
       </c>
       <c r="G58" s="3">
-        <v>224600</v>
+        <v>226100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>267700</v>
+        <v>269500</v>
       </c>
       <c r="E59" s="3">
-        <v>280600</v>
+        <v>282500</v>
       </c>
       <c r="F59" s="3">
-        <v>200700</v>
+        <v>202000</v>
       </c>
       <c r="G59" s="3">
-        <v>224500</v>
+        <v>226000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>933700</v>
+        <v>939900</v>
       </c>
       <c r="E60" s="3">
-        <v>756300</v>
+        <v>761400</v>
       </c>
       <c r="F60" s="3">
-        <v>576600</v>
+        <v>580500</v>
       </c>
       <c r="G60" s="3">
-        <v>654100</v>
+        <v>658500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>556700</v>
+        <v>560400</v>
       </c>
       <c r="E61" s="3">
-        <v>864800</v>
+        <v>870600</v>
       </c>
       <c r="F61" s="3">
-        <v>945400</v>
+        <v>951700</v>
       </c>
       <c r="G61" s="3">
-        <v>995300</v>
+        <v>1001900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>334400</v>
+        <v>336600</v>
       </c>
       <c r="E62" s="3">
-        <v>331700</v>
+        <v>334000</v>
       </c>
       <c r="F62" s="3">
-        <v>384100</v>
+        <v>386700</v>
       </c>
       <c r="G62" s="3">
-        <v>407200</v>
+        <v>409900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1882200</v>
+        <v>1894800</v>
       </c>
       <c r="E66" s="3">
-        <v>1999300</v>
+        <v>2012600</v>
       </c>
       <c r="F66" s="3">
-        <v>1952700</v>
+        <v>1965800</v>
       </c>
       <c r="G66" s="3">
-        <v>2100600</v>
+        <v>2114700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-167900</v>
+        <v>-169000</v>
       </c>
       <c r="E72" s="3">
-        <v>-203100</v>
+        <v>-204500</v>
       </c>
       <c r="F72" s="3">
-        <v>671300</v>
+        <v>675800</v>
       </c>
       <c r="G72" s="3">
-        <v>727500</v>
+        <v>732400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>731200</v>
+        <v>736000</v>
       </c>
       <c r="E76" s="3">
-        <v>647400</v>
+        <v>651800</v>
       </c>
       <c r="F76" s="3">
-        <v>648000</v>
+        <v>652400</v>
       </c>
       <c r="G76" s="3">
-        <v>741700</v>
+        <v>746700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>55400</v>
+        <v>55800</v>
       </c>
       <c r="E81" s="3">
-        <v>-146500</v>
+        <v>-147400</v>
       </c>
       <c r="F81" s="3">
-        <v>-54500</v>
+        <v>-54800</v>
       </c>
       <c r="G81" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="H81" s="3">
-        <v>40600</v>
+        <v>40900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>186900</v>
+        <v>188100</v>
       </c>
       <c r="E83" s="3">
-        <v>175900</v>
+        <v>177100</v>
       </c>
       <c r="F83" s="3">
-        <v>200200</v>
+        <v>201600</v>
       </c>
       <c r="G83" s="3">
-        <v>190700</v>
+        <v>192000</v>
       </c>
       <c r="H83" s="3">
-        <v>172900</v>
+        <v>174100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>157700</v>
+        <v>158700</v>
       </c>
       <c r="E89" s="3">
-        <v>302800</v>
+        <v>304800</v>
       </c>
       <c r="F89" s="3">
-        <v>76400</v>
+        <v>76900</v>
       </c>
       <c r="G89" s="3">
-        <v>187500</v>
+        <v>188800</v>
       </c>
       <c r="H89" s="3">
-        <v>207600</v>
+        <v>209000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,19 +2932,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-52900</v>
+        <v>-53200</v>
       </c>
       <c r="E91" s="3">
-        <v>-85800</v>
+        <v>-86400</v>
       </c>
       <c r="F91" s="3">
-        <v>-29800</v>
+        <v>-30000</v>
       </c>
       <c r="G91" s="3">
-        <v>-49700</v>
+        <v>-50000</v>
       </c>
       <c r="H91" s="3">
-        <v>-53000</v>
+        <v>-53400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3022,19 +3022,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-61700</v>
+        <v>-62200</v>
       </c>
       <c r="E94" s="3">
-        <v>-88300</v>
+        <v>-88900</v>
       </c>
       <c r="F94" s="3">
-        <v>99700</v>
+        <v>100400</v>
       </c>
       <c r="G94" s="3">
-        <v>90400</v>
+        <v>91000</v>
       </c>
       <c r="H94" s="3">
-        <v>-360300</v>
+        <v>-362700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3066,7 +3066,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23500</v>
+        <v>-23700</v>
       </c>
       <c r="E96" s="3">
         <v>-100</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-319800</v>
+        <v>-322000</v>
       </c>
       <c r="E100" s="3">
-        <v>-69000</v>
+        <v>-69500</v>
       </c>
       <c r="F100" s="3">
-        <v>-52800</v>
+        <v>-53200</v>
       </c>
       <c r="G100" s="3">
-        <v>-288100</v>
+        <v>-290000</v>
       </c>
       <c r="H100" s="3">
-        <v>142000</v>
+        <v>143000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3219,7 +3219,7 @@
         <v>2700</v>
       </c>
       <c r="E101" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="F101" s="3">
         <v>-8400</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-221300</v>
+        <v>-222800</v>
       </c>
       <c r="E102" s="3">
-        <v>153500</v>
+        <v>154500</v>
       </c>
       <c r="F102" s="3">
-        <v>114900</v>
+        <v>115600</v>
       </c>
       <c r="G102" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="H102" s="3">
         <v>-11100</v>

--- a/AAII_Financials/Yearly/ZGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZGN_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1618400</v>
+        <v>1619700</v>
       </c>
       <c r="E8" s="3">
-        <v>1401100</v>
+        <v>1402300</v>
       </c>
       <c r="F8" s="3">
-        <v>1100100</v>
+        <v>1101000</v>
       </c>
       <c r="G8" s="3">
-        <v>1432500</v>
+        <v>1433600</v>
       </c>
       <c r="H8" s="3">
-        <v>1282000</v>
+        <v>1283100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>435000</v>
+        <v>435300</v>
       </c>
       <c r="E9" s="3">
-        <v>398200</v>
+        <v>398500</v>
       </c>
       <c r="F9" s="3">
-        <v>340300</v>
+        <v>340600</v>
       </c>
       <c r="G9" s="3">
-        <v>422300</v>
+        <v>422600</v>
       </c>
       <c r="H9" s="3">
-        <v>326100</v>
+        <v>326300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1183400</v>
+        <v>1184400</v>
       </c>
       <c r="E10" s="3">
-        <v>1002900</v>
+        <v>1003800</v>
       </c>
       <c r="F10" s="3">
-        <v>759800</v>
+        <v>760400</v>
       </c>
       <c r="G10" s="3">
-        <v>1010200</v>
+        <v>1011000</v>
       </c>
       <c r="H10" s="3">
-        <v>956000</v>
+        <v>956700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -909,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>186300</v>
+        <v>186500</v>
       </c>
       <c r="E15" s="3">
-        <v>167200</v>
+        <v>167300</v>
       </c>
       <c r="F15" s="3">
-        <v>180200</v>
+        <v>180300</v>
       </c>
       <c r="G15" s="3">
-        <v>182400</v>
+        <v>182500</v>
       </c>
       <c r="H15" s="3">
-        <v>167400</v>
+        <v>167500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1458200</v>
+        <v>1459400</v>
       </c>
       <c r="E17" s="3">
-        <v>1503000</v>
+        <v>1504300</v>
       </c>
       <c r="F17" s="3">
-        <v>1129400</v>
+        <v>1130400</v>
       </c>
       <c r="G17" s="3">
-        <v>1336400</v>
+        <v>1337500</v>
       </c>
       <c r="H17" s="3">
-        <v>1182400</v>
+        <v>1183400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>160200</v>
+        <v>160300</v>
       </c>
       <c r="E18" s="3">
-        <v>-101900</v>
+        <v>-102000</v>
       </c>
       <c r="F18" s="3">
         <v>-29400</v>
       </c>
       <c r="G18" s="3">
-        <v>96100</v>
+        <v>96200</v>
       </c>
       <c r="H18" s="3">
-        <v>99600</v>
+        <v>99700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-34700</v>
+        <v>-34800</v>
       </c>
       <c r="E20" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="F20" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="G20" s="3">
         <v>-2900</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>313600</v>
+        <v>313800</v>
       </c>
       <c r="E21" s="3">
         <v>84800</v>
       </c>
       <c r="F21" s="3">
-        <v>182900</v>
+        <v>183000</v>
       </c>
       <c r="G21" s="3">
-        <v>285200</v>
+        <v>285400</v>
       </c>
       <c r="H21" s="3">
-        <v>267300</v>
+        <v>267500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1096,7 +1096,7 @@
         <v>18200</v>
       </c>
       <c r="H22" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1114,10 +1114,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>109600</v>
+        <v>109700</v>
       </c>
       <c r="E23" s="3">
-        <v>-105100</v>
+        <v>-105200</v>
       </c>
       <c r="F23" s="3">
         <v>-34200</v>
@@ -1126,7 +1126,7 @@
         <v>75100</v>
       </c>
       <c r="H23" s="3">
-        <v>75800</v>
+        <v>75900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>33300</v>
       </c>
       <c r="F24" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="G24" s="3">
         <v>47500</v>
@@ -1207,7 +1207,7 @@
         <v>70800</v>
       </c>
       <c r="E26" s="3">
-        <v>-138400</v>
+        <v>-138500</v>
       </c>
       <c r="F26" s="3">
         <v>-50500</v>
@@ -1216,7 +1216,7 @@
         <v>27600</v>
       </c>
       <c r="H26" s="3">
-        <v>43900</v>
+        <v>44000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="E27" s="3">
-        <v>-147400</v>
+        <v>-147600</v>
       </c>
       <c r="F27" s="3">
-        <v>-54800</v>
+        <v>-54900</v>
       </c>
       <c r="G27" s="3">
         <v>23600</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="E32" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="F32" s="3">
-        <v>-10700</v>
+        <v>-10800</v>
       </c>
       <c r="G32" s="3">
         <v>2900</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="E33" s="3">
-        <v>-147400</v>
+        <v>-147600</v>
       </c>
       <c r="F33" s="3">
-        <v>-54800</v>
+        <v>-54900</v>
       </c>
       <c r="G33" s="3">
         <v>23600</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="E35" s="3">
-        <v>-147400</v>
+        <v>-147600</v>
       </c>
       <c r="F35" s="3">
-        <v>-54800</v>
+        <v>-54900</v>
       </c>
       <c r="G35" s="3">
         <v>23600</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>275700</v>
+        <v>275900</v>
       </c>
       <c r="E41" s="3">
-        <v>498500</v>
+        <v>498900</v>
       </c>
       <c r="F41" s="3">
-        <v>344000</v>
+        <v>344300</v>
       </c>
       <c r="G41" s="3">
-        <v>228300</v>
+        <v>228500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>347900</v>
+        <v>348200</v>
       </c>
       <c r="E42" s="3">
-        <v>369000</v>
+        <v>369300</v>
       </c>
       <c r="F42" s="3">
-        <v>379600</v>
+        <v>379900</v>
       </c>
       <c r="G42" s="3">
-        <v>471500</v>
+        <v>471900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>208800</v>
+        <v>208900</v>
       </c>
       <c r="E43" s="3">
-        <v>190100</v>
+        <v>190200</v>
       </c>
       <c r="F43" s="3">
-        <v>167400</v>
+        <v>167600</v>
       </c>
       <c r="G43" s="3">
-        <v>203600</v>
+        <v>203800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1657,16 +1657,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>445400</v>
+        <v>445800</v>
       </c>
       <c r="E44" s="3">
-        <v>366900</v>
+        <v>367200</v>
       </c>
       <c r="F44" s="3">
-        <v>348500</v>
+        <v>348800</v>
       </c>
       <c r="G44" s="3">
-        <v>341000</v>
+        <v>341300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>116000</v>
+        <v>116100</v>
       </c>
       <c r="E45" s="3">
-        <v>76500</v>
+        <v>76600</v>
       </c>
       <c r="F45" s="3">
-        <v>103800</v>
+        <v>103900</v>
       </c>
       <c r="G45" s="3">
-        <v>107000</v>
+        <v>107100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1393800</v>
+        <v>1394900</v>
       </c>
       <c r="E46" s="3">
-        <v>1501000</v>
+        <v>1502200</v>
       </c>
       <c r="F46" s="3">
-        <v>1343400</v>
+        <v>1344500</v>
       </c>
       <c r="G46" s="3">
-        <v>1351500</v>
+        <v>1352600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1756,7 +1756,7 @@
         <v>43000</v>
       </c>
       <c r="G47" s="3">
-        <v>94800</v>
+        <v>94900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>543800</v>
+        <v>544300</v>
       </c>
       <c r="E48" s="3">
-        <v>522500</v>
+        <v>522900</v>
       </c>
       <c r="F48" s="3">
-        <v>699800</v>
+        <v>700400</v>
       </c>
       <c r="G48" s="3">
-        <v>856600</v>
+        <v>857300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>494200</v>
+        <v>494700</v>
       </c>
       <c r="E49" s="3">
-        <v>461000</v>
+        <v>461400</v>
       </c>
       <c r="F49" s="3">
-        <v>420500</v>
+        <v>420800</v>
       </c>
       <c r="G49" s="3">
-        <v>455300</v>
+        <v>455700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>168500</v>
+        <v>168600</v>
       </c>
       <c r="E52" s="3">
-        <v>151600</v>
+        <v>151800</v>
       </c>
       <c r="F52" s="3">
-        <v>111500</v>
+        <v>111600</v>
       </c>
       <c r="G52" s="3">
-        <v>103200</v>
+        <v>103300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2630800</v>
+        <v>2633000</v>
       </c>
       <c r="E54" s="3">
-        <v>2664400</v>
+        <v>2666600</v>
       </c>
       <c r="F54" s="3">
-        <v>2618200</v>
+        <v>2620300</v>
       </c>
       <c r="G54" s="3">
-        <v>2861400</v>
+        <v>2863700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>239400</v>
+        <v>239600</v>
       </c>
       <c r="E57" s="3">
-        <v>192800</v>
+        <v>192900</v>
       </c>
       <c r="F57" s="3">
-        <v>162900</v>
+        <v>163000</v>
       </c>
       <c r="G57" s="3">
-        <v>206400</v>
+        <v>206600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>431100</v>
+        <v>431400</v>
       </c>
       <c r="E58" s="3">
-        <v>286100</v>
+        <v>286400</v>
       </c>
       <c r="F58" s="3">
-        <v>215600</v>
+        <v>215800</v>
       </c>
       <c r="G58" s="3">
-        <v>226100</v>
+        <v>226300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>269500</v>
+        <v>269700</v>
       </c>
       <c r="E59" s="3">
-        <v>282500</v>
+        <v>282700</v>
       </c>
       <c r="F59" s="3">
-        <v>202000</v>
+        <v>202200</v>
       </c>
       <c r="G59" s="3">
-        <v>226000</v>
+        <v>226200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>939900</v>
+        <v>940700</v>
       </c>
       <c r="E60" s="3">
-        <v>761400</v>
+        <v>762000</v>
       </c>
       <c r="F60" s="3">
-        <v>580500</v>
+        <v>581000</v>
       </c>
       <c r="G60" s="3">
-        <v>658500</v>
+        <v>659000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>560400</v>
+        <v>560900</v>
       </c>
       <c r="E61" s="3">
-        <v>870600</v>
+        <v>871300</v>
       </c>
       <c r="F61" s="3">
-        <v>951700</v>
+        <v>952500</v>
       </c>
       <c r="G61" s="3">
-        <v>1001900</v>
+        <v>1002700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>336600</v>
+        <v>336900</v>
       </c>
       <c r="E62" s="3">
-        <v>334000</v>
+        <v>334200</v>
       </c>
       <c r="F62" s="3">
-        <v>386700</v>
+        <v>387000</v>
       </c>
       <c r="G62" s="3">
-        <v>409900</v>
+        <v>410200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1894800</v>
+        <v>1896300</v>
       </c>
       <c r="E66" s="3">
-        <v>2012600</v>
+        <v>2014300</v>
       </c>
       <c r="F66" s="3">
-        <v>1965800</v>
+        <v>1967400</v>
       </c>
       <c r="G66" s="3">
-        <v>2114700</v>
+        <v>2116400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-169000</v>
+        <v>-169100</v>
       </c>
       <c r="E72" s="3">
-        <v>-204500</v>
+        <v>-204600</v>
       </c>
       <c r="F72" s="3">
-        <v>675800</v>
+        <v>676400</v>
       </c>
       <c r="G72" s="3">
-        <v>732400</v>
+        <v>733000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>736000</v>
+        <v>736700</v>
       </c>
       <c r="E76" s="3">
-        <v>651800</v>
+        <v>652300</v>
       </c>
       <c r="F76" s="3">
-        <v>652400</v>
+        <v>652900</v>
       </c>
       <c r="G76" s="3">
-        <v>746700</v>
+        <v>747300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="E81" s="3">
-        <v>-147400</v>
+        <v>-147600</v>
       </c>
       <c r="F81" s="3">
-        <v>-54800</v>
+        <v>-54900</v>
       </c>
       <c r="G81" s="3">
         <v>23600</v>
@@ -2708,19 +2708,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>188100</v>
+        <v>188300</v>
       </c>
       <c r="E83" s="3">
-        <v>177100</v>
+        <v>177300</v>
       </c>
       <c r="F83" s="3">
-        <v>201600</v>
+        <v>201700</v>
       </c>
       <c r="G83" s="3">
-        <v>192000</v>
+        <v>192100</v>
       </c>
       <c r="H83" s="3">
-        <v>174100</v>
+        <v>174200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2888,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>158700</v>
+        <v>158800</v>
       </c>
       <c r="E89" s="3">
-        <v>304800</v>
+        <v>305100</v>
       </c>
       <c r="F89" s="3">
         <v>76900</v>
       </c>
       <c r="G89" s="3">
-        <v>188800</v>
+        <v>188900</v>
       </c>
       <c r="H89" s="3">
-        <v>209000</v>
+        <v>209200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2932,10 +2932,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53200</v>
+        <v>-53300</v>
       </c>
       <c r="E91" s="3">
-        <v>-86400</v>
+        <v>-86500</v>
       </c>
       <c r="F91" s="3">
         <v>-30000</v>
@@ -3025,16 +3025,16 @@
         <v>-62200</v>
       </c>
       <c r="E94" s="3">
-        <v>-88900</v>
+        <v>-89000</v>
       </c>
       <c r="F94" s="3">
         <v>100400</v>
       </c>
       <c r="G94" s="3">
-        <v>91000</v>
+        <v>91100</v>
       </c>
       <c r="H94" s="3">
-        <v>-362700</v>
+        <v>-363000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3186,19 +3186,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-322000</v>
+        <v>-322200</v>
       </c>
       <c r="E100" s="3">
-        <v>-69500</v>
+        <v>-69600</v>
       </c>
       <c r="F100" s="3">
         <v>-53200</v>
       </c>
       <c r="G100" s="3">
-        <v>-290000</v>
+        <v>-290200</v>
       </c>
       <c r="H100" s="3">
-        <v>143000</v>
+        <v>143100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-222800</v>
+        <v>-222900</v>
       </c>
       <c r="E102" s="3">
-        <v>154500</v>
+        <v>154600</v>
       </c>
       <c r="F102" s="3">
-        <v>115600</v>
+        <v>115700</v>
       </c>
       <c r="G102" s="3">
         <v>-8400</v>
